--- a/registedUsers.xlsx
+++ b/registedUsers.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>user_id</t>
   </si>
@@ -91,10 +94,10 @@
     <t>Azizbek</t>
   </si>
   <si>
-    <t>Thu Dec 22 12:58:09 2022</t>
-  </si>
-  <si>
-    <t>Azizbek Berdimuratov</t>
+    <t>Fri Dec 23 12:41:42 2022</t>
+  </si>
+  <si>
+    <t>Азизбек Бердимуратов</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,9 +471,10 @@
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,13 +496,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>663946357</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -515,36 +522,42 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
+      <c r="B3" s="2">
+        <v>1104616109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
+      <c r="B4" s="2">
+        <v>1750889783</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -553,59 +566,68 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
+      <c r="B5" s="2">
+        <v>2021280515</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
+      <c r="B6" s="2">
+        <v>5356014595</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
